--- a/Output/VektorAusgabe/5000_VektorAusgabe.xlsx
+++ b/Output/VektorAusgabe/5000_VektorAusgabe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Datei</t>
   </si>
@@ -178,40 +178,175 @@
     <t>Vektor49</t>
   </si>
   <si>
-    <t>5000_3.0_0.0,0.0_pos.csv</t>
+    <t>Vektor50</t>
+  </si>
+  <si>
+    <t>Vektor51</t>
+  </si>
+  <si>
+    <t>Vektor52</t>
+  </si>
+  <si>
+    <t>Vektor53</t>
+  </si>
+  <si>
+    <t>Vektor54</t>
+  </si>
+  <si>
+    <t>Vektor55</t>
+  </si>
+  <si>
+    <t>Vektor56</t>
+  </si>
+  <si>
+    <t>Vektor57</t>
+  </si>
+  <si>
+    <t>Vektor58</t>
+  </si>
+  <si>
+    <t>Vektor59</t>
+  </si>
+  <si>
+    <t>Vektor60</t>
+  </si>
+  <si>
+    <t>Vektor61</t>
+  </si>
+  <si>
+    <t>Vektor62</t>
+  </si>
+  <si>
+    <t>Vektor63</t>
+  </si>
+  <si>
+    <t>Vektor64</t>
+  </si>
+  <si>
+    <t>Vektor65</t>
+  </si>
+  <si>
+    <t>Vektor66</t>
+  </si>
+  <si>
+    <t>Vektor67</t>
+  </si>
+  <si>
+    <t>Vektor68</t>
+  </si>
+  <si>
+    <t>Vektor69</t>
+  </si>
+  <si>
+    <t>Vektor70</t>
+  </si>
+  <si>
+    <t>Vektor71</t>
+  </si>
+  <si>
+    <t>Vektor72</t>
+  </si>
+  <si>
+    <t>Vektor73</t>
+  </si>
+  <si>
+    <t>Vektor74</t>
+  </si>
+  <si>
+    <t>Vektor75</t>
+  </si>
+  <si>
+    <t>Vektor76</t>
+  </si>
+  <si>
+    <t>Vektor77</t>
+  </si>
+  <si>
+    <t>Vektor78</t>
+  </si>
+  <si>
+    <t>Vektor79</t>
+  </si>
+  <si>
+    <t>Vektor80</t>
+  </si>
+  <si>
+    <t>Vektor81</t>
+  </si>
+  <si>
+    <t>Vektor82</t>
+  </si>
+  <si>
+    <t>Vektor83</t>
+  </si>
+  <si>
+    <t>Vektor84</t>
+  </si>
+  <si>
+    <t>Vektor85</t>
+  </si>
+  <si>
+    <t>Vektor86</t>
+  </si>
+  <si>
+    <t>Vektor87</t>
+  </si>
+  <si>
+    <t>Vektor88</t>
+  </si>
+  <si>
+    <t>Vektor89</t>
+  </si>
+  <si>
+    <t>Vektor90</t>
+  </si>
+  <si>
+    <t>Vektor91</t>
+  </si>
+  <si>
+    <t>Vektor92</t>
+  </si>
+  <si>
+    <t>Vektor93</t>
+  </si>
+  <si>
+    <t>Vektor94</t>
+  </si>
+  <si>
+    <t>Vektor95</t>
+  </si>
+  <si>
+    <t>Vektor96</t>
+  </si>
+  <si>
+    <t>Vektor97</t>
+  </si>
+  <si>
+    <t>Vektor98</t>
+  </si>
+  <si>
+    <t>Vektor99</t>
+  </si>
+  <si>
+    <t>Vektor100</t>
+  </si>
+  <si>
+    <t>10000_2.0_20_.60000,.80000_pos.csv</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10000_3.0_20_.60000,.80000_pos.csv</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>5000_4.0_0.0,0.0_pos.csv</t>
+    <t>10000_4.0_20_.60000,.80000_pos.csv</t>
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>5000_5.0_0.0,0.0_pos.csv</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5000_6.0_0.0,0.0_pos.csv</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5000_7.0_0.0,0.0_pos.csv</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5000_8.0_0.0,0.0_pos.csv</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -543,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB7"/>
+  <dimension ref="A1:DA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:105">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,989 +847,1109 @@
       <c r="BB1" t="s">
         <v>53</v>
       </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:105">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>1.428825002307796</v>
+        <v>1.59467971138708</v>
       </c>
       <c r="F2">
-        <v>1.208988914028666</v>
+        <v>1.579668669585515</v>
       </c>
       <c r="G2">
-        <v>1.438820847641835</v>
+        <v>1.56465762778395</v>
       </c>
       <c r="H2">
-        <v>1.438735539921568</v>
+        <v>1.549646585982385</v>
       </c>
       <c r="I2">
-        <v>1.199042127677298</v>
+        <v>1.534635544180819</v>
       </c>
       <c r="J2">
-        <v>1.278918035106436</v>
+        <v>1.519624502379255</v>
       </c>
       <c r="K2">
-        <v>1.189065388253433</v>
+        <v>1.504613460577689</v>
       </c>
       <c r="L2">
-        <v>1.138981441079529</v>
+        <v>1.489602418776124</v>
       </c>
       <c r="M2">
-        <v>1.059158174739088</v>
+        <v>1.474591376974559</v>
       </c>
       <c r="N2">
-        <v>1.288782559502399</v>
+        <v>1.459580335172993</v>
       </c>
       <c r="O2">
-        <v>1.059143232342277</v>
+        <v>1.444569293371428</v>
       </c>
       <c r="P2">
-        <v>1.109065927763024</v>
+        <v>1.429558251569863</v>
       </c>
       <c r="Q2">
-        <v>1.129043029948391</v>
+        <v>1.414547209768298</v>
       </c>
       <c r="R2">
-        <v>0.9092951151605184</v>
+        <v>1.399536167966733</v>
       </c>
       <c r="S2">
-        <v>0.9092717031187489</v>
+        <v>1.384525126165167</v>
       </c>
       <c r="T2">
-        <v>0.9293250126722132</v>
+        <v>1.369514084363602</v>
       </c>
       <c r="U2">
-        <v>0.7693111907276653</v>
+        <v>1.354503042562037</v>
       </c>
       <c r="V2">
-        <v>0.8691731475548634</v>
+        <v>1.339492000760472</v>
       </c>
       <c r="W2">
-        <v>0.7493494975695051</v>
+        <v>1.324480958958907</v>
       </c>
       <c r="X2">
-        <v>0.6394715858753044</v>
+        <v>1.309469917157341</v>
       </c>
       <c r="Y2">
-        <v>0.6693676660354708</v>
+        <v>1.294458875355776</v>
       </c>
       <c r="Z2">
-        <v>0.6694610597517493</v>
+        <v>1.279447833554211</v>
       </c>
       <c r="AA2">
-        <v>0.58953510668908</v>
+        <v>1.264436791752646</v>
       </c>
       <c r="AB2">
-        <v>0.48953364160714</v>
+        <v>1.249425749951081</v>
       </c>
       <c r="AC2">
-        <v>0.4596480932804175</v>
+        <v>1.234414708149516</v>
       </c>
       <c r="AD2">
-        <v>0.5695562865744282</v>
+        <v>1.21940366634795</v>
       </c>
       <c r="AE2">
-        <v>0.4896556837387399</v>
+        <v>1.204392624546385</v>
       </c>
       <c r="AF2">
-        <v>0.5095248601708561</v>
+        <v>1.18938158274482</v>
       </c>
       <c r="AG2">
-        <v>0.5695055699991394</v>
+        <v>1.174370540943255</v>
       </c>
       <c r="AH2">
-        <v>0.719379530164976</v>
+        <v>1.15935949914169</v>
       </c>
       <c r="AI2">
-        <v>0.6992949085296376</v>
+        <v>1.144348457340125</v>
       </c>
       <c r="AJ2">
-        <v>0.8691551840514422</v>
+        <v>1.129337415538559</v>
       </c>
       <c r="AK2">
-        <v>0.8393129111064375</v>
+        <v>1.114326373736994</v>
       </c>
       <c r="AL2">
-        <v>0.8493043326027175</v>
+        <v>1.099315331935429</v>
       </c>
       <c r="AM2">
-        <v>0.6693869161601332</v>
+        <v>1.084304290133864</v>
       </c>
       <c r="AN2">
-        <v>0.9691241456555988</v>
+        <v>1.069293248332298</v>
       </c>
       <c r="AO2">
-        <v>1.079131380347839</v>
+        <v>1.054282206530733</v>
       </c>
       <c r="AP2">
-        <v>1.049168555302378</v>
+        <v>1.039271164729168</v>
       </c>
       <c r="AQ2">
-        <v>0.9991455313034014</v>
+        <v>1.024260122927603</v>
       </c>
       <c r="AR2">
-        <v>1.269058328233848</v>
+        <v>1.009249081126038</v>
       </c>
       <c r="AS2">
-        <v>1.318839443854857</v>
+        <v>0.9942380393244725</v>
       </c>
       <c r="AT2">
-        <v>1.119150286104173</v>
+        <v>0.9792269975229073</v>
       </c>
       <c r="AU2">
-        <v>1.218922329640762</v>
+        <v>0.964215955721342</v>
       </c>
       <c r="AV2">
-        <v>1.218931543278613</v>
+        <v>0.949204913919777</v>
       </c>
       <c r="AW2">
-        <v>1.36882065459037</v>
+        <v>0.9341938721182117</v>
       </c>
       <c r="AX2">
-        <v>1.268878123391085</v>
+        <v>0.9191828303166465</v>
       </c>
       <c r="AY2">
-        <v>1.408713826107305</v>
+        <v>0.9041717885150812</v>
       </c>
       <c r="AZ2">
-        <v>1.378910729218292</v>
+        <v>0.8891607467135161</v>
       </c>
       <c r="BA2">
-        <v>1.398717574266652</v>
+        <v>0.874149704911951</v>
       </c>
       <c r="BB2">
-        <v>1.498883939466039</v>
+        <v>0.8591386631103859</v>
+      </c>
+      <c r="BC2">
+        <v>0.8591386631103858</v>
+      </c>
+      <c r="BD2">
+        <v>0.874149704911951</v>
+      </c>
+      <c r="BE2">
+        <v>0.8891607467135161</v>
+      </c>
+      <c r="BF2">
+        <v>0.9041717885150813</v>
+      </c>
+      <c r="BG2">
+        <v>0.9191828303166465</v>
+      </c>
+      <c r="BH2">
+        <v>0.9341938721182117</v>
+      </c>
+      <c r="BI2">
+        <v>0.9492049139197769</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9642159557213421</v>
+      </c>
+      <c r="BK2">
+        <v>0.9792269975229072</v>
+      </c>
+      <c r="BL2">
+        <v>0.9942380393244726</v>
+      </c>
+      <c r="BM2">
+        <v>1.009249081126038</v>
+      </c>
+      <c r="BN2">
+        <v>1.024260122927603</v>
+      </c>
+      <c r="BO2">
+        <v>1.039271164729168</v>
+      </c>
+      <c r="BP2">
+        <v>1.054282206530733</v>
+      </c>
+      <c r="BQ2">
+        <v>1.069293248332298</v>
+      </c>
+      <c r="BR2">
+        <v>1.084304290133864</v>
+      </c>
+      <c r="BS2">
+        <v>1.099315331935429</v>
+      </c>
+      <c r="BT2">
+        <v>1.114326373736994</v>
+      </c>
+      <c r="BU2">
+        <v>1.129337415538559</v>
+      </c>
+      <c r="BV2">
+        <v>1.144348457340125</v>
+      </c>
+      <c r="BW2">
+        <v>1.15935949914169</v>
+      </c>
+      <c r="BX2">
+        <v>1.174370540943255</v>
+      </c>
+      <c r="BY2">
+        <v>1.18938158274482</v>
+      </c>
+      <c r="BZ2">
+        <v>1.204392624546385</v>
+      </c>
+      <c r="CA2">
+        <v>1.21940366634795</v>
+      </c>
+      <c r="CB2">
+        <v>1.234414708149516</v>
+      </c>
+      <c r="CC2">
+        <v>1.249425749951081</v>
+      </c>
+      <c r="CD2">
+        <v>1.264436791752646</v>
+      </c>
+      <c r="CE2">
+        <v>1.279447833554211</v>
+      </c>
+      <c r="CF2">
+        <v>1.294458875355776</v>
+      </c>
+      <c r="CG2">
+        <v>1.309469917157342</v>
+      </c>
+      <c r="CH2">
+        <v>1.324480958958907</v>
+      </c>
+      <c r="CI2">
+        <v>1.339492000760472</v>
+      </c>
+      <c r="CJ2">
+        <v>1.354503042562037</v>
+      </c>
+      <c r="CK2">
+        <v>1.369514084363602</v>
+      </c>
+      <c r="CL2">
+        <v>1.384525126165168</v>
+      </c>
+      <c r="CM2">
+        <v>1.399536167966733</v>
+      </c>
+      <c r="CN2">
+        <v>1.414547209768298</v>
+      </c>
+      <c r="CO2">
+        <v>1.429558251569863</v>
+      </c>
+      <c r="CP2">
+        <v>1.444569293371428</v>
+      </c>
+      <c r="CQ2">
+        <v>1.459580335172993</v>
+      </c>
+      <c r="CR2">
+        <v>1.474591376974559</v>
+      </c>
+      <c r="CS2">
+        <v>1.489602418776124</v>
+      </c>
+      <c r="CT2">
+        <v>1.504613460577689</v>
+      </c>
+      <c r="CU2">
+        <v>1.519624502379255</v>
+      </c>
+      <c r="CV2">
+        <v>1.534635544180819</v>
+      </c>
+      <c r="CW2">
+        <v>1.549646585982384</v>
+      </c>
+      <c r="CX2">
+        <v>1.56465762778395</v>
+      </c>
+      <c r="CY2">
+        <v>1.579668669585515</v>
+      </c>
+      <c r="CZ2">
+        <v>1.59467971138708</v>
+      </c>
+      <c r="DA2">
+        <v>1.59467971138708</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:105">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3">
-        <v>1.548570190242513</v>
+        <v>1.712256205498141</v>
       </c>
       <c r="F3">
-        <v>1.408676259718116</v>
+        <v>1.691646443024639</v>
       </c>
       <c r="G3">
-        <v>1.548808127330541</v>
+        <v>1.671036680551139</v>
       </c>
       <c r="H3">
-        <v>1.438917373823827</v>
+        <v>1.650426918077637</v>
       </c>
       <c r="I3">
-        <v>1.428658491922958</v>
+        <v>1.629817155604136</v>
       </c>
       <c r="J3">
-        <v>1.328794323588149</v>
+        <v>1.609207393130635</v>
       </c>
       <c r="K3">
-        <v>1.438590285049843</v>
+        <v>1.588597630657134</v>
       </c>
       <c r="L3">
-        <v>1.298895875623566</v>
+        <v>1.567987868183632</v>
       </c>
       <c r="M3">
-        <v>1.208982646546191</v>
+        <v>1.547378105710131</v>
       </c>
       <c r="N3">
-        <v>1.098979916040781</v>
+        <v>1.52676834323663</v>
       </c>
       <c r="O3">
-        <v>1.228866584991504</v>
+        <v>1.506158580763128</v>
       </c>
       <c r="P3">
-        <v>1.079131016708035</v>
+        <v>1.485548818289627</v>
       </c>
       <c r="Q3">
-        <v>0.9292200399628427</v>
+        <v>1.464939055816126</v>
       </c>
       <c r="R3">
-        <v>0.9091103907156202</v>
+        <v>1.444329293342625</v>
       </c>
       <c r="S3">
-        <v>1.069055885099355</v>
+        <v>1.423719530869124</v>
       </c>
       <c r="T3">
-        <v>0.7593664111998526</v>
+        <v>1.403109768395622</v>
       </c>
       <c r="U3">
-        <v>0.6994355926951867</v>
+        <v>1.382500005922121</v>
       </c>
       <c r="V3">
-        <v>0.7494198495730039</v>
+        <v>1.36189024344862</v>
       </c>
       <c r="W3">
-        <v>0.7193848462436675</v>
+        <v>1.341280480975118</v>
       </c>
       <c r="X3">
-        <v>0.5895062364059432</v>
+        <v>1.320670718501617</v>
       </c>
       <c r="Y3">
-        <v>0.5195607985264445</v>
+        <v>1.300060956028116</v>
       </c>
       <c r="Z3">
-        <v>0.5295802457283324</v>
+        <v>1.279451193554614</v>
       </c>
       <c r="AA3">
-        <v>0.5595694973459282</v>
+        <v>1.258841431081113</v>
       </c>
       <c r="AB3">
-        <v>0.5096007164861505</v>
+        <v>1.238231668607612</v>
       </c>
       <c r="AC3">
-        <v>0.4896028579281548</v>
+        <v>1.217621906134111</v>
       </c>
       <c r="AD3">
-        <v>0.3096718349629679</v>
+        <v>1.19701214366061</v>
       </c>
       <c r="AE3">
-        <v>0.4395957970903978</v>
+        <v>1.176402381187108</v>
       </c>
       <c r="AF3">
-        <v>0.4196797302050378</v>
+        <v>1.155792618713607</v>
       </c>
       <c r="AG3">
-        <v>0.7294062067859139</v>
+        <v>1.135182856240106</v>
       </c>
       <c r="AH3">
-        <v>0.5495881835874862</v>
+        <v>1.114573093766605</v>
       </c>
       <c r="AI3">
-        <v>0.7193331511349409</v>
+        <v>1.093963331293103</v>
       </c>
       <c r="AJ3">
-        <v>0.8193387900026368</v>
+        <v>1.073353568819602</v>
       </c>
       <c r="AK3">
-        <v>0.6993791355266178</v>
+        <v>1.052743806346101</v>
       </c>
       <c r="AL3">
-        <v>0.8792368801325746</v>
+        <v>1.032134043872599</v>
       </c>
       <c r="AM3">
-        <v>0.6893855580787104</v>
+        <v>1.011524281399098</v>
       </c>
       <c r="AN3">
-        <v>0.7994253585048942</v>
+        <v>0.990914518925597</v>
       </c>
       <c r="AO3">
-        <v>0.9491466977133474</v>
+        <v>0.9703047564520957</v>
       </c>
       <c r="AP3">
-        <v>0.9092371388484213</v>
+        <v>0.9496949939785944</v>
       </c>
       <c r="AQ3">
-        <v>1.029122630614211</v>
+        <v>0.9290852315050931</v>
       </c>
       <c r="AR3">
-        <v>1.13899531398558</v>
+        <v>0.9084754690315918</v>
       </c>
       <c r="AS3">
-        <v>1.148890116766864</v>
+        <v>0.8878657065580906</v>
       </c>
       <c r="AT3">
-        <v>1.368923224329544</v>
+        <v>0.8672559440845896</v>
       </c>
       <c r="AU3">
-        <v>1.139136781352491</v>
+        <v>0.8466461816110882</v>
       </c>
       <c r="AV3">
-        <v>1.239020342141246</v>
+        <v>0.8260364191375871</v>
       </c>
       <c r="AW3">
-        <v>1.348776091194983</v>
+        <v>0.8054266566640857</v>
       </c>
       <c r="AX3">
-        <v>1.418825865979251</v>
+        <v>0.7848168941905844</v>
       </c>
       <c r="AY3">
-        <v>1.518782999266308</v>
+        <v>0.7642071317170831</v>
       </c>
       <c r="AZ3">
-        <v>1.3187859969572</v>
+        <v>0.7435973692435819</v>
       </c>
       <c r="BA3">
-        <v>1.618515600345274</v>
+        <v>0.7229876067700807</v>
       </c>
       <c r="BB3">
-        <v>1.67861850361613</v>
+        <v>0.7023778442965793</v>
+      </c>
+      <c r="BC3">
+        <v>0.7023778442965795</v>
+      </c>
+      <c r="BD3">
+        <v>0.7229876067700808</v>
+      </c>
+      <c r="BE3">
+        <v>0.7435973692435819</v>
+      </c>
+      <c r="BF3">
+        <v>0.7642071317170831</v>
+      </c>
+      <c r="BG3">
+        <v>0.7848168941905843</v>
+      </c>
+      <c r="BH3">
+        <v>0.8054266566640857</v>
+      </c>
+      <c r="BI3">
+        <v>0.8260364191375871</v>
+      </c>
+      <c r="BJ3">
+        <v>0.8466461816110881</v>
+      </c>
+      <c r="BK3">
+        <v>0.8672559440845894</v>
+      </c>
+      <c r="BL3">
+        <v>0.8878657065580906</v>
+      </c>
+      <c r="BM3">
+        <v>0.9084754690315918</v>
+      </c>
+      <c r="BN3">
+        <v>0.9290852315050931</v>
+      </c>
+      <c r="BO3">
+        <v>0.9496949939785944</v>
+      </c>
+      <c r="BP3">
+        <v>0.9703047564520958</v>
+      </c>
+      <c r="BQ3">
+        <v>0.9909145189255968</v>
+      </c>
+      <c r="BR3">
+        <v>1.011524281399098</v>
+      </c>
+      <c r="BS3">
+        <v>1.032134043872599</v>
+      </c>
+      <c r="BT3">
+        <v>1.052743806346101</v>
+      </c>
+      <c r="BU3">
+        <v>1.073353568819602</v>
+      </c>
+      <c r="BV3">
+        <v>1.093963331293103</v>
+      </c>
+      <c r="BW3">
+        <v>1.114573093766605</v>
+      </c>
+      <c r="BX3">
+        <v>1.135182856240106</v>
+      </c>
+      <c r="BY3">
+        <v>1.155792618713607</v>
+      </c>
+      <c r="BZ3">
+        <v>1.176402381187108</v>
+      </c>
+      <c r="CA3">
+        <v>1.19701214366061</v>
+      </c>
+      <c r="CB3">
+        <v>1.217621906134111</v>
+      </c>
+      <c r="CC3">
+        <v>1.238231668607612</v>
+      </c>
+      <c r="CD3">
+        <v>1.258841431081113</v>
+      </c>
+      <c r="CE3">
+        <v>1.279451193554614</v>
+      </c>
+      <c r="CF3">
+        <v>1.300060956028116</v>
+      </c>
+      <c r="CG3">
+        <v>1.320670718501617</v>
+      </c>
+      <c r="CH3">
+        <v>1.341280480975118</v>
+      </c>
+      <c r="CI3">
+        <v>1.36189024344862</v>
+      </c>
+      <c r="CJ3">
+        <v>1.382500005922121</v>
+      </c>
+      <c r="CK3">
+        <v>1.403109768395622</v>
+      </c>
+      <c r="CL3">
+        <v>1.423719530869124</v>
+      </c>
+      <c r="CM3">
+        <v>1.444329293342625</v>
+      </c>
+      <c r="CN3">
+        <v>1.464939055816126</v>
+      </c>
+      <c r="CO3">
+        <v>1.485548818289627</v>
+      </c>
+      <c r="CP3">
+        <v>1.506158580763128</v>
+      </c>
+      <c r="CQ3">
+        <v>1.52676834323663</v>
+      </c>
+      <c r="CR3">
+        <v>1.547378105710131</v>
+      </c>
+      <c r="CS3">
+        <v>1.567987868183632</v>
+      </c>
+      <c r="CT3">
+        <v>1.588597630657134</v>
+      </c>
+      <c r="CU3">
+        <v>1.609207393130635</v>
+      </c>
+      <c r="CV3">
+        <v>1.629817155604136</v>
+      </c>
+      <c r="CW3">
+        <v>1.650426918077637</v>
+      </c>
+      <c r="CX3">
+        <v>1.671036680551139</v>
+      </c>
+      <c r="CY3">
+        <v>1.69164644302464</v>
+      </c>
+      <c r="CZ3">
+        <v>1.712256205498141</v>
+      </c>
+      <c r="DA3">
+        <v>1.712256205498141</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:105">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>1.468630985718747</v>
+        <v>1.915845349932096</v>
       </c>
       <c r="F4">
-        <v>1.608647072480784</v>
+        <v>1.886085346360419</v>
       </c>
       <c r="G4">
-        <v>1.448754768718208</v>
+        <v>1.856325342788743</v>
       </c>
       <c r="H4">
-        <v>1.478749168443916</v>
+        <v>1.826565339217066</v>
       </c>
       <c r="I4">
-        <v>1.368922636687248</v>
+        <v>1.796805335645389</v>
       </c>
       <c r="J4">
-        <v>1.278902124417105</v>
+        <v>1.767045332073713</v>
       </c>
       <c r="K4">
-        <v>1.328802974706189</v>
+        <v>1.737285328502036</v>
       </c>
       <c r="L4">
-        <v>1.188941136335196</v>
+        <v>1.70752532493036</v>
       </c>
       <c r="M4">
-        <v>1.039077993453225</v>
+        <v>1.677765321358683</v>
       </c>
       <c r="N4">
-        <v>1.138979341185151</v>
+        <v>1.648005317787007</v>
       </c>
       <c r="O4">
-        <v>1.059090105248133</v>
+        <v>1.61824531421533</v>
       </c>
       <c r="P4">
-        <v>0.9492340310044401</v>
+        <v>1.588485310643653</v>
       </c>
       <c r="Q4">
-        <v>1.029101084157051</v>
+        <v>1.558725307071976</v>
       </c>
       <c r="R4">
-        <v>1.029128116013557</v>
+        <v>1.5289653035003</v>
       </c>
       <c r="S4">
-        <v>0.8992141089818408</v>
+        <v>1.499205299928623</v>
       </c>
       <c r="T4">
-        <v>0.7393517469540927</v>
+        <v>1.469445296356947</v>
       </c>
       <c r="U4">
-        <v>0.6594861366366555</v>
+        <v>1.43968529278527</v>
       </c>
       <c r="V4">
-        <v>0.8192512259580543</v>
+        <v>1.409925289213594</v>
       </c>
       <c r="W4">
-        <v>0.759326534523218</v>
+        <v>1.380165285641917</v>
       </c>
       <c r="X4">
-        <v>0.5496005247731469</v>
+        <v>1.35040528207024</v>
       </c>
       <c r="Y4">
-        <v>0.6693906351289374</v>
+        <v>1.320645278498564</v>
       </c>
       <c r="Z4">
-        <v>0.5694742562859899</v>
+        <v>1.290885274926887</v>
       </c>
       <c r="AA4">
-        <v>0.6194670092149192</v>
+        <v>1.261125271355211</v>
       </c>
       <c r="AB4">
-        <v>0.389699995157885</v>
+        <v>1.231365267783535</v>
       </c>
       <c r="AC4">
-        <v>0.3297178837050657</v>
+        <v>1.201605264211858</v>
       </c>
       <c r="AD4">
-        <v>0.3896309041110478</v>
+        <v>1.171845260640181</v>
       </c>
       <c r="AE4">
-        <v>0.499673675431293</v>
+        <v>1.142085257068504</v>
       </c>
       <c r="AF4">
-        <v>0.4996138543705375</v>
+        <v>1.112325253496828</v>
       </c>
       <c r="AG4">
-        <v>0.469595918817951</v>
+        <v>1.082565249925151</v>
       </c>
       <c r="AH4">
-        <v>0.469505856571252</v>
+        <v>1.052805246353474</v>
       </c>
       <c r="AI4">
-        <v>0.619446032587559</v>
+        <v>1.023045242781798</v>
       </c>
       <c r="AJ4">
-        <v>0.6994586234692894</v>
+        <v>0.9932852392101215</v>
       </c>
       <c r="AK4">
-        <v>0.7392753602422888</v>
+        <v>0.9635252356384449</v>
       </c>
       <c r="AL4">
-        <v>0.8293125698419409</v>
+        <v>0.9337652320667681</v>
       </c>
       <c r="AM4">
-        <v>0.8292834966292587</v>
+        <v>0.9040052284950917</v>
       </c>
       <c r="AN4">
-        <v>0.8791391926875624</v>
+        <v>0.8742452249234153</v>
       </c>
       <c r="AO4">
-        <v>0.9291813247115406</v>
+        <v>0.8444852213517385</v>
       </c>
       <c r="AP4">
-        <v>0.9293493221557773</v>
+        <v>0.8147252177800619</v>
       </c>
       <c r="AQ4">
-        <v>1.109132899625202</v>
+        <v>0.7849652142083854</v>
       </c>
       <c r="AR4">
-        <v>1.138927018515079</v>
+        <v>0.7552052106367088</v>
       </c>
       <c r="AS4">
-        <v>1.278905996137737</v>
+        <v>0.7254452070650319</v>
       </c>
       <c r="AT4">
-        <v>1.278924730422551</v>
+        <v>0.6956852034933555</v>
       </c>
       <c r="AU4">
-        <v>1.478713235636502</v>
+        <v>0.665925199921679</v>
       </c>
       <c r="AV4">
-        <v>1.388773858657643</v>
+        <v>0.6361651963500023</v>
       </c>
       <c r="AW4">
-        <v>1.28886039722904</v>
+        <v>0.6064051927783257</v>
       </c>
       <c r="AX4">
-        <v>1.36886644573867</v>
+        <v>0.5766451892066491</v>
       </c>
       <c r="AY4">
-        <v>1.49871351416163</v>
+        <v>0.5468851856349725</v>
       </c>
       <c r="AZ4">
-        <v>1.568708754275737</v>
+        <v>0.5171251820632958</v>
       </c>
       <c r="BA4">
-        <v>1.64857528659118</v>
+        <v>0.4873651784916195</v>
       </c>
       <c r="BB4">
-        <v>1.718528201774725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>1.688568985706999</v>
-      </c>
-      <c r="F5">
-        <v>1.378906062561337</v>
-      </c>
-      <c r="G5">
-        <v>1.388775741433905</v>
-      </c>
-      <c r="H5">
-        <v>1.468670541915267</v>
-      </c>
-      <c r="I5">
-        <v>1.568837255053017</v>
-      </c>
-      <c r="J5">
-        <v>1.328886527327899</v>
-      </c>
-      <c r="K5">
-        <v>1.428841268756498</v>
-      </c>
-      <c r="L5">
-        <v>1.388978366400742</v>
-      </c>
-      <c r="M5">
-        <v>1.188950558888057</v>
-      </c>
-      <c r="N5">
-        <v>1.189006222811535</v>
-      </c>
-      <c r="O5">
-        <v>1.059132008437229</v>
-      </c>
-      <c r="P5">
-        <v>1.119013379740515</v>
-      </c>
-      <c r="Q5">
-        <v>1.239042330094412</v>
-      </c>
-      <c r="R5">
-        <v>0.8892850304640657</v>
-      </c>
-      <c r="S5">
-        <v>0.7494077384762665</v>
-      </c>
-      <c r="T5">
-        <v>0.79938023383976</v>
-      </c>
-      <c r="U5">
-        <v>0.7893932282898438</v>
-      </c>
-      <c r="V5">
-        <v>0.69942138018431</v>
-      </c>
-      <c r="W5">
-        <v>0.5894526638878663</v>
-      </c>
-      <c r="X5">
-        <v>0.5395083383884621</v>
-      </c>
-      <c r="Y5">
-        <v>0.5095915705221452</v>
-      </c>
-      <c r="Z5">
-        <v>0.4596698867218996</v>
-      </c>
-      <c r="AA5">
-        <v>0.4795021419215107</v>
-      </c>
-      <c r="AB5">
-        <v>0.3797137812958323</v>
-      </c>
-      <c r="AC5">
-        <v>0.3297403076568637</v>
-      </c>
-      <c r="AD5">
-        <v>0.3896803299847456</v>
-      </c>
-      <c r="AE5">
-        <v>0.3097433319401671</v>
-      </c>
-      <c r="AF5">
-        <v>0.3695990537238302</v>
-      </c>
-      <c r="AG5">
-        <v>0.5094859315378037</v>
-      </c>
-      <c r="AH5">
-        <v>0.5495472915730015</v>
-      </c>
-      <c r="AI5">
-        <v>0.6893838471482606</v>
-      </c>
-      <c r="AJ5">
-        <v>0.6494748810719594</v>
-      </c>
-      <c r="AK5">
-        <v>0.7193254271041988</v>
-      </c>
-      <c r="AL5">
-        <v>0.6893666478004882</v>
-      </c>
-      <c r="AM5">
-        <v>0.8692548335580409</v>
-      </c>
-      <c r="AN5">
-        <v>0.9492455069349841</v>
-      </c>
-      <c r="AO5">
-        <v>1.029152553580641</v>
-      </c>
-      <c r="AP5">
-        <v>1.009217539417924</v>
-      </c>
-      <c r="AQ5">
-        <v>1.079009509539636</v>
-      </c>
-      <c r="AR5">
-        <v>1.228952693960435</v>
-      </c>
-      <c r="AS5">
-        <v>0.9092193780703898</v>
-      </c>
-      <c r="AT5">
-        <v>1.1390180829793</v>
-      </c>
-      <c r="AU5">
-        <v>1.478822562610356</v>
-      </c>
-      <c r="AV5">
-        <v>1.458868634268934</v>
-      </c>
-      <c r="AW5">
-        <v>1.358921476933036</v>
-      </c>
-      <c r="AX5">
-        <v>1.438676413663107</v>
-      </c>
-      <c r="AY5">
-        <v>1.438860134702102</v>
-      </c>
-      <c r="AZ5">
-        <v>1.578683365814163</v>
-      </c>
-      <c r="BA5">
-        <v>1.838547482092267</v>
-      </c>
-      <c r="BB5">
-        <v>1.638698255422349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>1.708481711216015</v>
-      </c>
-      <c r="F6">
-        <v>1.828481455779779</v>
-      </c>
-      <c r="G6">
-        <v>1.578715295656223</v>
-      </c>
-      <c r="H6">
-        <v>1.538776783413787</v>
-      </c>
-      <c r="I6">
-        <v>1.438780100162052</v>
-      </c>
-      <c r="J6">
-        <v>1.358776705908822</v>
-      </c>
-      <c r="K6">
-        <v>1.248840840503984</v>
-      </c>
-      <c r="L6">
-        <v>1.378905524227901</v>
-      </c>
-      <c r="M6">
-        <v>1.218966152712149</v>
-      </c>
-      <c r="N6">
-        <v>1.238970101036746</v>
-      </c>
-      <c r="O6">
-        <v>0.9990724176483524</v>
-      </c>
-      <c r="P6">
-        <v>0.9992115518639716</v>
-      </c>
-      <c r="Q6">
-        <v>0.9692066050053001</v>
-      </c>
-      <c r="R6">
-        <v>0.7993253528568238</v>
-      </c>
-      <c r="S6">
-        <v>0.9692009198066222</v>
-      </c>
-      <c r="T6">
-        <v>0.67950546238637</v>
-      </c>
-      <c r="U6">
-        <v>0.9092130867884184</v>
-      </c>
-      <c r="V6">
-        <v>0.669488248832727</v>
-      </c>
-      <c r="W6">
-        <v>0.5795213262696584</v>
-      </c>
-      <c r="X6">
-        <v>0.6394894920481439</v>
-      </c>
-      <c r="Y6">
-        <v>0.509555381500811</v>
-      </c>
-      <c r="Z6">
-        <v>0.4196472013255197</v>
-      </c>
-      <c r="AA6">
-        <v>0.4495755767083754</v>
-      </c>
-      <c r="AB6">
-        <v>0.3097798516055946</v>
-      </c>
-      <c r="AC6">
-        <v>0.3896471092179725</v>
-      </c>
-      <c r="AD6">
-        <v>0.3297739533050765</v>
-      </c>
-      <c r="AE6">
-        <v>0.3597757818443769</v>
-      </c>
-      <c r="AF6">
-        <v>0.3096854908019784</v>
-      </c>
-      <c r="AG6">
-        <v>0.4995150627853129</v>
-      </c>
-      <c r="AH6">
-        <v>0.6195693018963495</v>
-      </c>
-      <c r="AI6">
-        <v>0.6394890156916407</v>
-      </c>
-      <c r="AJ6">
-        <v>0.6194783151516869</v>
-      </c>
-      <c r="AK6">
-        <v>0.7393993548448303</v>
-      </c>
-      <c r="AL6">
-        <v>0.8392301393897332</v>
-      </c>
-      <c r="AM6">
-        <v>0.7892150198839349</v>
-      </c>
-      <c r="AN6">
-        <v>0.8992574031043852</v>
-      </c>
-      <c r="AO6">
-        <v>0.9791431980570547</v>
-      </c>
-      <c r="AP6">
-        <v>0.859367267297962</v>
-      </c>
-      <c r="AQ6">
-        <v>1.08900332677006</v>
-      </c>
-      <c r="AR6">
-        <v>1.20889985063106</v>
-      </c>
-      <c r="AS6">
-        <v>1.149061381714082</v>
-      </c>
-      <c r="AT6">
-        <v>1.338931286817576</v>
-      </c>
-      <c r="AU6">
-        <v>0.989115657654399</v>
-      </c>
-      <c r="AV6">
-        <v>1.38877054787867</v>
-      </c>
-      <c r="AW6">
-        <v>1.498695167058909</v>
-      </c>
-      <c r="AX6">
-        <v>1.228989793638771</v>
-      </c>
-      <c r="AY6">
-        <v>1.608564023367421</v>
-      </c>
-      <c r="AZ6">
-        <v>1.748506139843529</v>
-      </c>
-      <c r="BA6">
-        <v>1.718435744066256</v>
-      </c>
-      <c r="BB6">
-        <v>1.688655630983197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>1.998337239795639</v>
-      </c>
-      <c r="F7">
-        <v>1.718612665804707</v>
-      </c>
-      <c r="G7">
-        <v>1.518679689845465</v>
-      </c>
-      <c r="H7">
-        <v>1.708563524306397</v>
-      </c>
-      <c r="I7">
-        <v>1.508691883765688</v>
-      </c>
-      <c r="J7">
-        <v>1.498777121716857</v>
-      </c>
-      <c r="K7">
-        <v>1.258878116133022</v>
-      </c>
-      <c r="L7">
-        <v>1.328912318626175</v>
-      </c>
-      <c r="M7">
-        <v>1.198916846972111</v>
-      </c>
-      <c r="N7">
-        <v>1.05908835784184</v>
-      </c>
-      <c r="O7">
-        <v>1.298871851782122</v>
-      </c>
-      <c r="P7">
-        <v>1.029104013959107</v>
-      </c>
-      <c r="Q7">
-        <v>0.9092260942385673</v>
-      </c>
-      <c r="R7">
-        <v>0.9990662258385109</v>
-      </c>
-      <c r="S7">
-        <v>0.6793847126479626</v>
-      </c>
-      <c r="T7">
-        <v>0.8093723037849526</v>
-      </c>
-      <c r="U7">
-        <v>0.7093654374591691</v>
-      </c>
-      <c r="V7">
-        <v>0.6194957923731089</v>
-      </c>
-      <c r="W7">
-        <v>0.5994207338277813</v>
-      </c>
-      <c r="X7">
-        <v>0.5195208499747642</v>
-      </c>
-      <c r="Y7">
-        <v>0.569539398281693</v>
-      </c>
-      <c r="Z7">
-        <v>0.4495811429014638</v>
-      </c>
-      <c r="AA7">
-        <v>0.2897976870116655</v>
-      </c>
-      <c r="AB7">
-        <v>0.2597611991231126</v>
-      </c>
-      <c r="AC7">
-        <v>0.2198161682892124</v>
-      </c>
-      <c r="AD7">
-        <v>0.299757402537195</v>
-      </c>
-      <c r="AE7">
-        <v>0.2797965698616221</v>
-      </c>
-      <c r="AF7">
-        <v>0.2997414220755927</v>
-      </c>
-      <c r="AG7">
-        <v>0.4796239177125262</v>
-      </c>
-      <c r="AH7">
-        <v>0.5994648921927517</v>
-      </c>
-      <c r="AI7">
-        <v>0.5096454133645602</v>
-      </c>
-      <c r="AJ7">
-        <v>0.6494073734315875</v>
-      </c>
-      <c r="AK7">
-        <v>0.6794069749197594</v>
-      </c>
-      <c r="AL7">
-        <v>0.6994062959619037</v>
-      </c>
-      <c r="AM7">
-        <v>0.7094059578124476</v>
-      </c>
-      <c r="AN7">
-        <v>0.8592783299277413</v>
-      </c>
-      <c r="AO7">
-        <v>0.8992475676561417</v>
-      </c>
-      <c r="AP7">
-        <v>1.049092012150958</v>
-      </c>
-      <c r="AQ7">
-        <v>1.088957314278607</v>
-      </c>
-      <c r="AR7">
-        <v>1.268914660605831</v>
-      </c>
-      <c r="AS7">
-        <v>1.079137505380974</v>
-      </c>
-      <c r="AT7">
-        <v>1.408796841298942</v>
-      </c>
-      <c r="AU7">
-        <v>1.198921463333521</v>
-      </c>
-      <c r="AV7">
-        <v>1.458804312854974</v>
-      </c>
-      <c r="AW7">
-        <v>1.408675273424457</v>
-      </c>
-      <c r="AX7">
-        <v>1.488770604517744</v>
-      </c>
-      <c r="AY7">
-        <v>1.468777057195314</v>
-      </c>
-      <c r="AZ7">
-        <v>1.678626552639617</v>
-      </c>
-      <c r="BA7">
-        <v>1.85830635778431</v>
-      </c>
-      <c r="BB7">
-        <v>1.788505608248429</v>
+        <v>0.4576051749199427</v>
+      </c>
+      <c r="BC4">
+        <v>0.4576051749199427</v>
+      </c>
+      <c r="BD4">
+        <v>0.4873651784916195</v>
+      </c>
+      <c r="BE4">
+        <v>0.5171251820632958</v>
+      </c>
+      <c r="BF4">
+        <v>0.5468851856349726</v>
+      </c>
+      <c r="BG4">
+        <v>0.5766451892066492</v>
+      </c>
+      <c r="BH4">
+        <v>0.6064051927783257</v>
+      </c>
+      <c r="BI4">
+        <v>0.6361651963500023</v>
+      </c>
+      <c r="BJ4">
+        <v>0.6659251999216789</v>
+      </c>
+      <c r="BK4">
+        <v>0.6956852034933555</v>
+      </c>
+      <c r="BL4">
+        <v>0.725445207065032</v>
+      </c>
+      <c r="BM4">
+        <v>0.7552052106367086</v>
+      </c>
+      <c r="BN4">
+        <v>0.7849652142083853</v>
+      </c>
+      <c r="BO4">
+        <v>0.8147252177800619</v>
+      </c>
+      <c r="BP4">
+        <v>0.8444852213517386</v>
+      </c>
+      <c r="BQ4">
+        <v>0.8742452249234151</v>
+      </c>
+      <c r="BR4">
+        <v>0.9040052284950917</v>
+      </c>
+      <c r="BS4">
+        <v>0.9337652320667682</v>
+      </c>
+      <c r="BT4">
+        <v>0.9635252356384449</v>
+      </c>
+      <c r="BU4">
+        <v>0.9932852392101215</v>
+      </c>
+      <c r="BV4">
+        <v>1.023045242781798</v>
+      </c>
+      <c r="BW4">
+        <v>1.052805246353474</v>
+      </c>
+      <c r="BX4">
+        <v>1.082565249925151</v>
+      </c>
+      <c r="BY4">
+        <v>1.112325253496828</v>
+      </c>
+      <c r="BZ4">
+        <v>1.142085257068504</v>
+      </c>
+      <c r="CA4">
+        <v>1.171845260640181</v>
+      </c>
+      <c r="CB4">
+        <v>1.201605264211858</v>
+      </c>
+      <c r="CC4">
+        <v>1.231365267783534</v>
+      </c>
+      <c r="CD4">
+        <v>1.261125271355211</v>
+      </c>
+      <c r="CE4">
+        <v>1.290885274926887</v>
+      </c>
+      <c r="CF4">
+        <v>1.320645278498564</v>
+      </c>
+      <c r="CG4">
+        <v>1.35040528207024</v>
+      </c>
+      <c r="CH4">
+        <v>1.380165285641917</v>
+      </c>
+      <c r="CI4">
+        <v>1.409925289213594</v>
+      </c>
+      <c r="CJ4">
+        <v>1.43968529278527</v>
+      </c>
+      <c r="CK4">
+        <v>1.469445296356947</v>
+      </c>
+      <c r="CL4">
+        <v>1.499205299928623</v>
+      </c>
+      <c r="CM4">
+        <v>1.5289653035003</v>
+      </c>
+      <c r="CN4">
+        <v>1.558725307071976</v>
+      </c>
+      <c r="CO4">
+        <v>1.588485310643653</v>
+      </c>
+      <c r="CP4">
+        <v>1.61824531421533</v>
+      </c>
+      <c r="CQ4">
+        <v>1.648005317787007</v>
+      </c>
+      <c r="CR4">
+        <v>1.677765321358683</v>
+      </c>
+      <c r="CS4">
+        <v>1.70752532493036</v>
+      </c>
+      <c r="CT4">
+        <v>1.737285328502036</v>
+      </c>
+      <c r="CU4">
+        <v>1.767045332073713</v>
+      </c>
+      <c r="CV4">
+        <v>1.796805335645389</v>
+      </c>
+      <c r="CW4">
+        <v>1.826565339217066</v>
+      </c>
+      <c r="CX4">
+        <v>1.856325342788743</v>
+      </c>
+      <c r="CY4">
+        <v>1.886085346360419</v>
+      </c>
+      <c r="CZ4">
+        <v>1.915845349932096</v>
+      </c>
+      <c r="DA4">
+        <v>1.915845349932096</v>
       </c>
     </row>
   </sheetData>

--- a/Output/VektorAusgabe/5000_VektorAusgabe.xlsx
+++ b/Output/VektorAusgabe/5000_VektorAusgabe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Datei</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>Vektor99</t>
-  </si>
-  <si>
-    <t>Vektor100</t>
   </si>
   <si>
     <t>10000_2.0_20_.60000,.80000_pos.csv</t>
@@ -678,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DA4"/>
+  <dimension ref="A1:CZ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:105">
+    <row r="1" spans="1:104">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,16 +994,13 @@
       <c r="CZ1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+    </row>
+    <row r="2" spans="1:104">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:105">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1015,315 +1009,312 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>1.59467971138708</v>
+        <v>0.7973398556935402</v>
       </c>
       <c r="F2">
-        <v>1.579668669585515</v>
+        <v>0.7898343347927576</v>
       </c>
       <c r="G2">
-        <v>1.56465762778395</v>
+        <v>0.7823288138919748</v>
       </c>
       <c r="H2">
-        <v>1.549646585982385</v>
+        <v>0.7748232929911923</v>
       </c>
       <c r="I2">
-        <v>1.534635544180819</v>
+        <v>0.7673177720904097</v>
       </c>
       <c r="J2">
-        <v>1.519624502379255</v>
+        <v>0.7598122511896273</v>
       </c>
       <c r="K2">
-        <v>1.504613460577689</v>
+        <v>0.7523067302888446</v>
       </c>
       <c r="L2">
-        <v>1.489602418776124</v>
+        <v>0.7448012093880619</v>
       </c>
       <c r="M2">
-        <v>1.474591376974559</v>
+        <v>0.7372956884872794</v>
       </c>
       <c r="N2">
-        <v>1.459580335172993</v>
+        <v>0.7297901675864967</v>
       </c>
       <c r="O2">
-        <v>1.444569293371428</v>
+        <v>0.7222846466857142</v>
       </c>
       <c r="P2">
-        <v>1.429558251569863</v>
+        <v>0.7147791257849315</v>
       </c>
       <c r="Q2">
-        <v>1.414547209768298</v>
+        <v>0.707273604884149</v>
       </c>
       <c r="R2">
-        <v>1.399536167966733</v>
+        <v>0.6997680839833663</v>
       </c>
       <c r="S2">
-        <v>1.384525126165167</v>
+        <v>0.6922625630825838</v>
       </c>
       <c r="T2">
-        <v>1.369514084363602</v>
+        <v>0.6847570421818012</v>
       </c>
       <c r="U2">
-        <v>1.354503042562037</v>
+        <v>0.6772515212810187</v>
       </c>
       <c r="V2">
-        <v>1.339492000760472</v>
+        <v>0.669746000380236</v>
       </c>
       <c r="W2">
-        <v>1.324480958958907</v>
+        <v>0.6622404794794535</v>
       </c>
       <c r="X2">
-        <v>1.309469917157341</v>
+        <v>0.6547349585786707</v>
       </c>
       <c r="Y2">
-        <v>1.294458875355776</v>
+        <v>0.6472294376778882</v>
       </c>
       <c r="Z2">
-        <v>1.279447833554211</v>
+        <v>0.6397239167771056</v>
       </c>
       <c r="AA2">
-        <v>1.264436791752646</v>
+        <v>0.6322183958763229</v>
       </c>
       <c r="AB2">
-        <v>1.249425749951081</v>
+        <v>0.6247128749755404</v>
       </c>
       <c r="AC2">
-        <v>1.234414708149516</v>
+        <v>0.6172073540747578</v>
       </c>
       <c r="AD2">
-        <v>1.21940366634795</v>
+        <v>0.6097018331739752</v>
       </c>
       <c r="AE2">
-        <v>1.204392624546385</v>
+        <v>0.6021963122731926</v>
       </c>
       <c r="AF2">
-        <v>1.18938158274482</v>
+        <v>0.5946907913724099</v>
       </c>
       <c r="AG2">
-        <v>1.174370540943255</v>
+        <v>0.5871852704716274</v>
       </c>
       <c r="AH2">
-        <v>1.15935949914169</v>
+        <v>0.5796797495708449</v>
       </c>
       <c r="AI2">
-        <v>1.144348457340125</v>
+        <v>0.5721742286700622</v>
       </c>
       <c r="AJ2">
-        <v>1.129337415538559</v>
+        <v>0.5646687077692797</v>
       </c>
       <c r="AK2">
-        <v>1.114326373736994</v>
+        <v>0.557163186868497</v>
       </c>
       <c r="AL2">
-        <v>1.099315331935429</v>
+        <v>0.5496576659677144</v>
       </c>
       <c r="AM2">
-        <v>1.084304290133864</v>
+        <v>0.5421521450669318</v>
       </c>
       <c r="AN2">
-        <v>1.069293248332298</v>
+        <v>0.5346466241661492</v>
       </c>
       <c r="AO2">
-        <v>1.054282206530733</v>
+        <v>0.5271411032653667</v>
       </c>
       <c r="AP2">
-        <v>1.039271164729168</v>
+        <v>0.5196355823645841</v>
       </c>
       <c r="AQ2">
-        <v>1.024260122927603</v>
+        <v>0.5121300614638015</v>
       </c>
       <c r="AR2">
-        <v>1.009249081126038</v>
+        <v>0.5046245405630189</v>
       </c>
       <c r="AS2">
-        <v>0.9942380393244725</v>
+        <v>0.4971190196622362</v>
       </c>
       <c r="AT2">
-        <v>0.9792269975229073</v>
+        <v>0.4896134987614536</v>
       </c>
       <c r="AU2">
-        <v>0.964215955721342</v>
+        <v>0.482107977860671</v>
       </c>
       <c r="AV2">
-        <v>0.949204913919777</v>
+        <v>0.4746024569598886</v>
       </c>
       <c r="AW2">
-        <v>0.9341938721182117</v>
+        <v>0.4670969360591058</v>
       </c>
       <c r="AX2">
-        <v>0.9191828303166465</v>
+        <v>0.4595914151583232</v>
       </c>
       <c r="AY2">
-        <v>0.9041717885150812</v>
+        <v>0.4520858942575406</v>
       </c>
       <c r="AZ2">
-        <v>0.8891607467135161</v>
+        <v>0.444580373356758</v>
       </c>
       <c r="BA2">
-        <v>0.874149704911951</v>
+        <v>0.4370748524559755</v>
       </c>
       <c r="BB2">
-        <v>0.8591386631103859</v>
+        <v>0.4295693315551929</v>
       </c>
       <c r="BC2">
-        <v>0.8591386631103858</v>
+        <v>0.4295693315551929</v>
       </c>
       <c r="BD2">
-        <v>0.874149704911951</v>
+        <v>0.4370748524559755</v>
       </c>
       <c r="BE2">
-        <v>0.8891607467135161</v>
+        <v>0.444580373356758</v>
       </c>
       <c r="BF2">
-        <v>0.9041717885150813</v>
+        <v>0.4520858942575406</v>
       </c>
       <c r="BG2">
-        <v>0.9191828303166465</v>
+        <v>0.4595914151583232</v>
       </c>
       <c r="BH2">
-        <v>0.9341938721182117</v>
+        <v>0.4670969360591058</v>
       </c>
       <c r="BI2">
-        <v>0.9492049139197769</v>
+        <v>0.4746024569598886</v>
       </c>
       <c r="BJ2">
-        <v>0.9642159557213421</v>
+        <v>0.482107977860671</v>
       </c>
       <c r="BK2">
-        <v>0.9792269975229072</v>
+        <v>0.4896134987614536</v>
       </c>
       <c r="BL2">
-        <v>0.9942380393244726</v>
+        <v>0.4971190196622362</v>
       </c>
       <c r="BM2">
-        <v>1.009249081126038</v>
+        <v>0.5046245405630189</v>
       </c>
       <c r="BN2">
-        <v>1.024260122927603</v>
+        <v>0.5121300614638015</v>
       </c>
       <c r="BO2">
-        <v>1.039271164729168</v>
+        <v>0.5196355823645841</v>
       </c>
       <c r="BP2">
-        <v>1.054282206530733</v>
+        <v>0.5271411032653667</v>
       </c>
       <c r="BQ2">
-        <v>1.069293248332298</v>
+        <v>0.5346466241661492</v>
       </c>
       <c r="BR2">
-        <v>1.084304290133864</v>
+        <v>0.5421521450669318</v>
       </c>
       <c r="BS2">
-        <v>1.099315331935429</v>
+        <v>0.5496576659677144</v>
       </c>
       <c r="BT2">
-        <v>1.114326373736994</v>
+        <v>0.557163186868497</v>
       </c>
       <c r="BU2">
-        <v>1.129337415538559</v>
+        <v>0.5646687077692797</v>
       </c>
       <c r="BV2">
-        <v>1.144348457340125</v>
+        <v>0.5721742286700622</v>
       </c>
       <c r="BW2">
-        <v>1.15935949914169</v>
+        <v>0.5796797495708449</v>
       </c>
       <c r="BX2">
-        <v>1.174370540943255</v>
+        <v>0.5871852704716274</v>
       </c>
       <c r="BY2">
-        <v>1.18938158274482</v>
+        <v>0.5946907913724099</v>
       </c>
       <c r="BZ2">
-        <v>1.204392624546385</v>
+        <v>0.6021963122731926</v>
       </c>
       <c r="CA2">
-        <v>1.21940366634795</v>
+        <v>0.6097018331739752</v>
       </c>
       <c r="CB2">
-        <v>1.234414708149516</v>
+        <v>0.6172073540747578</v>
       </c>
       <c r="CC2">
-        <v>1.249425749951081</v>
+        <v>0.6247128749755404</v>
       </c>
       <c r="CD2">
-        <v>1.264436791752646</v>
+        <v>0.6322183958763229</v>
       </c>
       <c r="CE2">
-        <v>1.279447833554211</v>
+        <v>0.6397239167771056</v>
       </c>
       <c r="CF2">
-        <v>1.294458875355776</v>
+        <v>0.6472294376778882</v>
       </c>
       <c r="CG2">
-        <v>1.309469917157342</v>
+        <v>0.6547349585786707</v>
       </c>
       <c r="CH2">
-        <v>1.324480958958907</v>
+        <v>0.6622404794794535</v>
       </c>
       <c r="CI2">
-        <v>1.339492000760472</v>
+        <v>0.669746000380236</v>
       </c>
       <c r="CJ2">
-        <v>1.354503042562037</v>
+        <v>0.6772515212810187</v>
       </c>
       <c r="CK2">
-        <v>1.369514084363602</v>
+        <v>0.6847570421818012</v>
       </c>
       <c r="CL2">
-        <v>1.384525126165168</v>
+        <v>0.6922625630825838</v>
       </c>
       <c r="CM2">
-        <v>1.399536167966733</v>
+        <v>0.6997680839833663</v>
       </c>
       <c r="CN2">
-        <v>1.414547209768298</v>
+        <v>0.707273604884149</v>
       </c>
       <c r="CO2">
-        <v>1.429558251569863</v>
+        <v>0.7147791257849315</v>
       </c>
       <c r="CP2">
-        <v>1.444569293371428</v>
+        <v>0.7222846466857142</v>
       </c>
       <c r="CQ2">
-        <v>1.459580335172993</v>
+        <v>0.7297901675864967</v>
       </c>
       <c r="CR2">
-        <v>1.474591376974559</v>
+        <v>0.7372956884872794</v>
       </c>
       <c r="CS2">
-        <v>1.489602418776124</v>
+        <v>0.7448012093880619</v>
       </c>
       <c r="CT2">
-        <v>1.504613460577689</v>
+        <v>0.7523067302888446</v>
       </c>
       <c r="CU2">
-        <v>1.519624502379255</v>
+        <v>0.7598122511896273</v>
       </c>
       <c r="CV2">
-        <v>1.534635544180819</v>
+        <v>0.7673177720904097</v>
       </c>
       <c r="CW2">
-        <v>1.549646585982384</v>
+        <v>0.7748232929911923</v>
       </c>
       <c r="CX2">
-        <v>1.56465762778395</v>
+        <v>0.7823288138919748</v>
       </c>
       <c r="CY2">
-        <v>1.579668669585515</v>
+        <v>0.7898343347927576</v>
       </c>
       <c r="CZ2">
-        <v>1.59467971138708</v>
-      </c>
-      <c r="DA2">
-        <v>1.59467971138708</v>
+        <v>0.7973398556935402</v>
       </c>
     </row>
-    <row r="3" spans="1:105">
+    <row r="3" spans="1:104">
       <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1332,315 +1323,312 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>1.712256205498141</v>
+        <v>0.8561281027490705</v>
       </c>
       <c r="F3">
-        <v>1.691646443024639</v>
+        <v>0.8458232215123199</v>
       </c>
       <c r="G3">
-        <v>1.671036680551139</v>
+        <v>0.8355183402755693</v>
       </c>
       <c r="H3">
-        <v>1.650426918077637</v>
+        <v>0.8252134590388186</v>
       </c>
       <c r="I3">
-        <v>1.629817155604136</v>
+        <v>0.8149085778020679</v>
       </c>
       <c r="J3">
-        <v>1.609207393130635</v>
+        <v>0.8046036965653175</v>
       </c>
       <c r="K3">
-        <v>1.588597630657134</v>
+        <v>0.7942988153285668</v>
       </c>
       <c r="L3">
-        <v>1.567987868183632</v>
+        <v>0.7839939340918162</v>
       </c>
       <c r="M3">
-        <v>1.547378105710131</v>
+        <v>0.7736890528550655</v>
       </c>
       <c r="N3">
-        <v>1.52676834323663</v>
+        <v>0.7633841716183148</v>
       </c>
       <c r="O3">
-        <v>1.506158580763128</v>
+        <v>0.7530792903815642</v>
       </c>
       <c r="P3">
-        <v>1.485548818289627</v>
+        <v>0.7427744091448135</v>
       </c>
       <c r="Q3">
-        <v>1.464939055816126</v>
+        <v>0.7324695279080629</v>
       </c>
       <c r="R3">
-        <v>1.444329293342625</v>
+        <v>0.7221646466713122</v>
       </c>
       <c r="S3">
-        <v>1.423719530869124</v>
+        <v>0.7118597654345619</v>
       </c>
       <c r="T3">
-        <v>1.403109768395622</v>
+        <v>0.7015548841978112</v>
       </c>
       <c r="U3">
-        <v>1.382500005922121</v>
+        <v>0.6912500029610605</v>
       </c>
       <c r="V3">
-        <v>1.36189024344862</v>
+        <v>0.6809451217243099</v>
       </c>
       <c r="W3">
-        <v>1.341280480975118</v>
+        <v>0.6706402404875591</v>
       </c>
       <c r="X3">
-        <v>1.320670718501617</v>
+        <v>0.6603353592508086</v>
       </c>
       <c r="Y3">
-        <v>1.300060956028116</v>
+        <v>0.6500304780140579</v>
       </c>
       <c r="Z3">
-        <v>1.279451193554614</v>
+        <v>0.6397255967773072</v>
       </c>
       <c r="AA3">
-        <v>1.258841431081113</v>
+        <v>0.6294207155405567</v>
       </c>
       <c r="AB3">
-        <v>1.238231668607612</v>
+        <v>0.619115834303806</v>
       </c>
       <c r="AC3">
-        <v>1.217621906134111</v>
+        <v>0.6088109530670555</v>
       </c>
       <c r="AD3">
-        <v>1.19701214366061</v>
+        <v>0.5985060718303048</v>
       </c>
       <c r="AE3">
-        <v>1.176402381187108</v>
+        <v>0.5882011905935542</v>
       </c>
       <c r="AF3">
-        <v>1.155792618713607</v>
+        <v>0.5778963093568036</v>
       </c>
       <c r="AG3">
-        <v>1.135182856240106</v>
+        <v>0.5675914281200529</v>
       </c>
       <c r="AH3">
-        <v>1.114573093766605</v>
+        <v>0.5572865468833023</v>
       </c>
       <c r="AI3">
-        <v>1.093963331293103</v>
+        <v>0.5469816656465517</v>
       </c>
       <c r="AJ3">
-        <v>1.073353568819602</v>
+        <v>0.536676784409801</v>
       </c>
       <c r="AK3">
-        <v>1.052743806346101</v>
+        <v>0.5263719031730504</v>
       </c>
       <c r="AL3">
-        <v>1.032134043872599</v>
+        <v>0.5160670219362997</v>
       </c>
       <c r="AM3">
-        <v>1.011524281399098</v>
+        <v>0.5057621406995491</v>
       </c>
       <c r="AN3">
-        <v>0.990914518925597</v>
+        <v>0.4954572594627984</v>
       </c>
       <c r="AO3">
-        <v>0.9703047564520957</v>
+        <v>0.485152378226048</v>
       </c>
       <c r="AP3">
-        <v>0.9496949939785944</v>
+        <v>0.4748474969892973</v>
       </c>
       <c r="AQ3">
-        <v>0.9290852315050931</v>
+        <v>0.4645426157525466</v>
       </c>
       <c r="AR3">
-        <v>0.9084754690315918</v>
+        <v>0.4542377345157959</v>
       </c>
       <c r="AS3">
-        <v>0.8878657065580906</v>
+        <v>0.4439328532790453</v>
       </c>
       <c r="AT3">
-        <v>0.8672559440845896</v>
+        <v>0.4336279720422948</v>
       </c>
       <c r="AU3">
-        <v>0.8466461816110882</v>
+        <v>0.4233230908055441</v>
       </c>
       <c r="AV3">
-        <v>0.8260364191375871</v>
+        <v>0.4130182095687936</v>
       </c>
       <c r="AW3">
-        <v>0.8054266566640857</v>
+        <v>0.4027133283320429</v>
       </c>
       <c r="AX3">
-        <v>0.7848168941905844</v>
+        <v>0.3924084470952922</v>
       </c>
       <c r="AY3">
-        <v>0.7642071317170831</v>
+        <v>0.3821035658585415</v>
       </c>
       <c r="AZ3">
-        <v>0.7435973692435819</v>
+        <v>0.3717986846217909</v>
       </c>
       <c r="BA3">
-        <v>0.7229876067700807</v>
+        <v>0.3614938033850404</v>
       </c>
       <c r="BB3">
-        <v>0.7023778442965793</v>
+        <v>0.3511889221482898</v>
       </c>
       <c r="BC3">
-        <v>0.7023778442965795</v>
+        <v>0.3511889221482898</v>
       </c>
       <c r="BD3">
-        <v>0.7229876067700808</v>
+        <v>0.3614938033850404</v>
       </c>
       <c r="BE3">
-        <v>0.7435973692435819</v>
+        <v>0.3717986846217909</v>
       </c>
       <c r="BF3">
-        <v>0.7642071317170831</v>
+        <v>0.3821035658585415</v>
       </c>
       <c r="BG3">
-        <v>0.7848168941905843</v>
+        <v>0.3924084470952922</v>
       </c>
       <c r="BH3">
-        <v>0.8054266566640857</v>
+        <v>0.4027133283320429</v>
       </c>
       <c r="BI3">
-        <v>0.8260364191375871</v>
+        <v>0.4130182095687936</v>
       </c>
       <c r="BJ3">
-        <v>0.8466461816110881</v>
+        <v>0.4233230908055441</v>
       </c>
       <c r="BK3">
-        <v>0.8672559440845894</v>
+        <v>0.4336279720422948</v>
       </c>
       <c r="BL3">
-        <v>0.8878657065580906</v>
+        <v>0.4439328532790453</v>
       </c>
       <c r="BM3">
-        <v>0.9084754690315918</v>
+        <v>0.4542377345157959</v>
       </c>
       <c r="BN3">
-        <v>0.9290852315050931</v>
+        <v>0.4645426157525466</v>
       </c>
       <c r="BO3">
-        <v>0.9496949939785944</v>
+        <v>0.4748474969892973</v>
       </c>
       <c r="BP3">
-        <v>0.9703047564520958</v>
+        <v>0.485152378226048</v>
       </c>
       <c r="BQ3">
-        <v>0.9909145189255968</v>
+        <v>0.4954572594627984</v>
       </c>
       <c r="BR3">
-        <v>1.011524281399098</v>
+        <v>0.5057621406995491</v>
       </c>
       <c r="BS3">
-        <v>1.032134043872599</v>
+        <v>0.5160670219362997</v>
       </c>
       <c r="BT3">
-        <v>1.052743806346101</v>
+        <v>0.5263719031730504</v>
       </c>
       <c r="BU3">
-        <v>1.073353568819602</v>
+        <v>0.536676784409801</v>
       </c>
       <c r="BV3">
-        <v>1.093963331293103</v>
+        <v>0.5469816656465517</v>
       </c>
       <c r="BW3">
-        <v>1.114573093766605</v>
+        <v>0.5572865468833023</v>
       </c>
       <c r="BX3">
-        <v>1.135182856240106</v>
+        <v>0.5675914281200529</v>
       </c>
       <c r="BY3">
-        <v>1.155792618713607</v>
+        <v>0.5778963093568036</v>
       </c>
       <c r="BZ3">
-        <v>1.176402381187108</v>
+        <v>0.5882011905935542</v>
       </c>
       <c r="CA3">
-        <v>1.19701214366061</v>
+        <v>0.5985060718303048</v>
       </c>
       <c r="CB3">
-        <v>1.217621906134111</v>
+        <v>0.6088109530670555</v>
       </c>
       <c r="CC3">
-        <v>1.238231668607612</v>
+        <v>0.619115834303806</v>
       </c>
       <c r="CD3">
-        <v>1.258841431081113</v>
+        <v>0.6294207155405567</v>
       </c>
       <c r="CE3">
-        <v>1.279451193554614</v>
+        <v>0.6397255967773072</v>
       </c>
       <c r="CF3">
-        <v>1.300060956028116</v>
+        <v>0.6500304780140579</v>
       </c>
       <c r="CG3">
-        <v>1.320670718501617</v>
+        <v>0.6603353592508086</v>
       </c>
       <c r="CH3">
-        <v>1.341280480975118</v>
+        <v>0.6706402404875591</v>
       </c>
       <c r="CI3">
-        <v>1.36189024344862</v>
+        <v>0.6809451217243099</v>
       </c>
       <c r="CJ3">
-        <v>1.382500005922121</v>
+        <v>0.6912500029610605</v>
       </c>
       <c r="CK3">
-        <v>1.403109768395622</v>
+        <v>0.7015548841978112</v>
       </c>
       <c r="CL3">
-        <v>1.423719530869124</v>
+        <v>0.7118597654345619</v>
       </c>
       <c r="CM3">
-        <v>1.444329293342625</v>
+        <v>0.7221646466713122</v>
       </c>
       <c r="CN3">
-        <v>1.464939055816126</v>
+        <v>0.7324695279080629</v>
       </c>
       <c r="CO3">
-        <v>1.485548818289627</v>
+        <v>0.7427744091448135</v>
       </c>
       <c r="CP3">
-        <v>1.506158580763128</v>
+        <v>0.7530792903815642</v>
       </c>
       <c r="CQ3">
-        <v>1.52676834323663</v>
+        <v>0.7633841716183148</v>
       </c>
       <c r="CR3">
-        <v>1.547378105710131</v>
+        <v>0.7736890528550655</v>
       </c>
       <c r="CS3">
-        <v>1.567987868183632</v>
+        <v>0.7839939340918162</v>
       </c>
       <c r="CT3">
-        <v>1.588597630657134</v>
+        <v>0.7942988153285668</v>
       </c>
       <c r="CU3">
-        <v>1.609207393130635</v>
+        <v>0.8046036965653175</v>
       </c>
       <c r="CV3">
-        <v>1.629817155604136</v>
+        <v>0.8149085778020679</v>
       </c>
       <c r="CW3">
-        <v>1.650426918077637</v>
+        <v>0.8252134590388186</v>
       </c>
       <c r="CX3">
-        <v>1.671036680551139</v>
+        <v>0.8355183402755693</v>
       </c>
       <c r="CY3">
-        <v>1.69164644302464</v>
+        <v>0.8458232215123199</v>
       </c>
       <c r="CZ3">
-        <v>1.712256205498141</v>
-      </c>
-      <c r="DA3">
-        <v>1.712256205498141</v>
+        <v>0.8561281027490705</v>
       </c>
     </row>
-    <row r="4" spans="1:105">
+    <row r="4" spans="1:104">
       <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1649,307 +1637,304 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>1.915845349932096</v>
+        <v>0.957922674966048</v>
       </c>
       <c r="F4">
-        <v>1.886085346360419</v>
+        <v>0.9430426731802096</v>
       </c>
       <c r="G4">
-        <v>1.856325342788743</v>
+        <v>0.9281626713943714</v>
       </c>
       <c r="H4">
-        <v>1.826565339217066</v>
+        <v>0.913282669608533</v>
       </c>
       <c r="I4">
-        <v>1.796805335645389</v>
+        <v>0.8984026678226947</v>
       </c>
       <c r="J4">
-        <v>1.767045332073713</v>
+        <v>0.8835226660368565</v>
       </c>
       <c r="K4">
-        <v>1.737285328502036</v>
+        <v>0.8686426642510182</v>
       </c>
       <c r="L4">
-        <v>1.70752532493036</v>
+        <v>0.8537626624651798</v>
       </c>
       <c r="M4">
-        <v>1.677765321358683</v>
+        <v>0.8388826606793416</v>
       </c>
       <c r="N4">
-        <v>1.648005317787007</v>
+        <v>0.8240026588935034</v>
       </c>
       <c r="O4">
-        <v>1.61824531421533</v>
+        <v>0.8091226571076651</v>
       </c>
       <c r="P4">
-        <v>1.588485310643653</v>
+        <v>0.7942426553218267</v>
       </c>
       <c r="Q4">
-        <v>1.558725307071976</v>
+        <v>0.7793626535359882</v>
       </c>
       <c r="R4">
-        <v>1.5289653035003</v>
+        <v>0.76448265175015</v>
       </c>
       <c r="S4">
-        <v>1.499205299928623</v>
+        <v>0.7496026499643117</v>
       </c>
       <c r="T4">
-        <v>1.469445296356947</v>
+        <v>0.7347226481784735</v>
       </c>
       <c r="U4">
-        <v>1.43968529278527</v>
+        <v>0.7198426463926352</v>
       </c>
       <c r="V4">
-        <v>1.409925289213594</v>
+        <v>0.7049626446067968</v>
       </c>
       <c r="W4">
-        <v>1.380165285641917</v>
+        <v>0.6900826428209587</v>
       </c>
       <c r="X4">
-        <v>1.35040528207024</v>
+        <v>0.6752026410351202</v>
       </c>
       <c r="Y4">
-        <v>1.320645278498564</v>
+        <v>0.6603226392492819</v>
       </c>
       <c r="Z4">
-        <v>1.290885274926887</v>
+        <v>0.6454426374634437</v>
       </c>
       <c r="AA4">
-        <v>1.261125271355211</v>
+        <v>0.6305626356776055</v>
       </c>
       <c r="AB4">
-        <v>1.231365267783535</v>
+        <v>0.6156826338917673</v>
       </c>
       <c r="AC4">
-        <v>1.201605264211858</v>
+        <v>0.6008026321059289</v>
       </c>
       <c r="AD4">
-        <v>1.171845260640181</v>
+        <v>0.5859226303200905</v>
       </c>
       <c r="AE4">
-        <v>1.142085257068504</v>
+        <v>0.5710426285342521</v>
       </c>
       <c r="AF4">
-        <v>1.112325253496828</v>
+        <v>0.5561626267484139</v>
       </c>
       <c r="AG4">
-        <v>1.082565249925151</v>
+        <v>0.5412826249625756</v>
       </c>
       <c r="AH4">
-        <v>1.052805246353474</v>
+        <v>0.5264026231767372</v>
       </c>
       <c r="AI4">
-        <v>1.023045242781798</v>
+        <v>0.511522621390899</v>
       </c>
       <c r="AJ4">
-        <v>0.9932852392101215</v>
+        <v>0.4966426196050607</v>
       </c>
       <c r="AK4">
-        <v>0.9635252356384449</v>
+        <v>0.4817626178192224</v>
       </c>
       <c r="AL4">
-        <v>0.9337652320667681</v>
+        <v>0.4668826160333842</v>
       </c>
       <c r="AM4">
-        <v>0.9040052284950917</v>
+        <v>0.4520026142475458</v>
       </c>
       <c r="AN4">
-        <v>0.8742452249234153</v>
+        <v>0.4371226124617076</v>
       </c>
       <c r="AO4">
-        <v>0.8444852213517385</v>
+        <v>0.4222426106758693</v>
       </c>
       <c r="AP4">
-        <v>0.8147252177800619</v>
+        <v>0.407362608890031</v>
       </c>
       <c r="AQ4">
-        <v>0.7849652142083854</v>
+        <v>0.3924826071041927</v>
       </c>
       <c r="AR4">
-        <v>0.7552052106367088</v>
+        <v>0.3776026053183544</v>
       </c>
       <c r="AS4">
-        <v>0.7254452070650319</v>
+        <v>0.362722603532516</v>
       </c>
       <c r="AT4">
-        <v>0.6956852034933555</v>
+        <v>0.3478426017466778</v>
       </c>
       <c r="AU4">
-        <v>0.665925199921679</v>
+        <v>0.3329625999608395</v>
       </c>
       <c r="AV4">
-        <v>0.6361651963500023</v>
+        <v>0.3180825981750013</v>
       </c>
       <c r="AW4">
-        <v>0.6064051927783257</v>
+        <v>0.3032025963891629</v>
       </c>
       <c r="AX4">
-        <v>0.5766451892066491</v>
+        <v>0.2883225946033245</v>
       </c>
       <c r="AY4">
-        <v>0.5468851856349725</v>
+        <v>0.2734425928174863</v>
       </c>
       <c r="AZ4">
-        <v>0.5171251820632958</v>
+        <v>0.2585625910316479</v>
       </c>
       <c r="BA4">
-        <v>0.4873651784916195</v>
+        <v>0.2436825892458097</v>
       </c>
       <c r="BB4">
-        <v>0.4576051749199427</v>
+        <v>0.2288025874599714</v>
       </c>
       <c r="BC4">
-        <v>0.4576051749199427</v>
+        <v>0.2288025874599714</v>
       </c>
       <c r="BD4">
-        <v>0.4873651784916195</v>
+        <v>0.2436825892458097</v>
       </c>
       <c r="BE4">
-        <v>0.5171251820632958</v>
+        <v>0.2585625910316479</v>
       </c>
       <c r="BF4">
-        <v>0.5468851856349726</v>
+        <v>0.2734425928174863</v>
       </c>
       <c r="BG4">
-        <v>0.5766451892066492</v>
+        <v>0.2883225946033245</v>
       </c>
       <c r="BH4">
-        <v>0.6064051927783257</v>
+        <v>0.3032025963891629</v>
       </c>
       <c r="BI4">
-        <v>0.6361651963500023</v>
+        <v>0.3180825981750013</v>
       </c>
       <c r="BJ4">
-        <v>0.6659251999216789</v>
+        <v>0.3329625999608395</v>
       </c>
       <c r="BK4">
-        <v>0.6956852034933555</v>
+        <v>0.3478426017466778</v>
       </c>
       <c r="BL4">
-        <v>0.725445207065032</v>
+        <v>0.362722603532516</v>
       </c>
       <c r="BM4">
-        <v>0.7552052106367086</v>
+        <v>0.3776026053183544</v>
       </c>
       <c r="BN4">
-        <v>0.7849652142083853</v>
+        <v>0.3924826071041927</v>
       </c>
       <c r="BO4">
-        <v>0.8147252177800619</v>
+        <v>0.407362608890031</v>
       </c>
       <c r="BP4">
-        <v>0.8444852213517386</v>
+        <v>0.4222426106758693</v>
       </c>
       <c r="BQ4">
-        <v>0.8742452249234151</v>
+        <v>0.4371226124617076</v>
       </c>
       <c r="BR4">
-        <v>0.9040052284950917</v>
+        <v>0.4520026142475458</v>
       </c>
       <c r="BS4">
-        <v>0.9337652320667682</v>
+        <v>0.4668826160333842</v>
       </c>
       <c r="BT4">
-        <v>0.9635252356384449</v>
+        <v>0.4817626178192224</v>
       </c>
       <c r="BU4">
-        <v>0.9932852392101215</v>
+        <v>0.4966426196050607</v>
       </c>
       <c r="BV4">
-        <v>1.023045242781798</v>
+        <v>0.511522621390899</v>
       </c>
       <c r="BW4">
-        <v>1.052805246353474</v>
+        <v>0.5264026231767372</v>
       </c>
       <c r="BX4">
-        <v>1.082565249925151</v>
+        <v>0.5412826249625756</v>
       </c>
       <c r="BY4">
-        <v>1.112325253496828</v>
+        <v>0.5561626267484139</v>
       </c>
       <c r="BZ4">
-        <v>1.142085257068504</v>
+        <v>0.5710426285342521</v>
       </c>
       <c r="CA4">
-        <v>1.171845260640181</v>
+        <v>0.5859226303200905</v>
       </c>
       <c r="CB4">
-        <v>1.201605264211858</v>
+        <v>0.6008026321059289</v>
       </c>
       <c r="CC4">
-        <v>1.231365267783534</v>
+        <v>0.6156826338917673</v>
       </c>
       <c r="CD4">
-        <v>1.261125271355211</v>
+        <v>0.6305626356776055</v>
       </c>
       <c r="CE4">
-        <v>1.290885274926887</v>
+        <v>0.6454426374634437</v>
       </c>
       <c r="CF4">
-        <v>1.320645278498564</v>
+        <v>0.6603226392492819</v>
       </c>
       <c r="CG4">
-        <v>1.35040528207024</v>
+        <v>0.6752026410351202</v>
       </c>
       <c r="CH4">
-        <v>1.380165285641917</v>
+        <v>0.6900826428209587</v>
       </c>
       <c r="CI4">
-        <v>1.409925289213594</v>
+        <v>0.7049626446067968</v>
       </c>
       <c r="CJ4">
-        <v>1.43968529278527</v>
+        <v>0.7198426463926352</v>
       </c>
       <c r="CK4">
-        <v>1.469445296356947</v>
+        <v>0.7347226481784735</v>
       </c>
       <c r="CL4">
-        <v>1.499205299928623</v>
+        <v>0.7496026499643117</v>
       </c>
       <c r="CM4">
-        <v>1.5289653035003</v>
+        <v>0.76448265175015</v>
       </c>
       <c r="CN4">
-        <v>1.558725307071976</v>
+        <v>0.7793626535359882</v>
       </c>
       <c r="CO4">
-        <v>1.588485310643653</v>
+        <v>0.7942426553218267</v>
       </c>
       <c r="CP4">
-        <v>1.61824531421533</v>
+        <v>0.8091226571076651</v>
       </c>
       <c r="CQ4">
-        <v>1.648005317787007</v>
+        <v>0.8240026588935034</v>
       </c>
       <c r="CR4">
-        <v>1.677765321358683</v>
+        <v>0.8388826606793416</v>
       </c>
       <c r="CS4">
-        <v>1.70752532493036</v>
+        <v>0.8537626624651798</v>
       </c>
       <c r="CT4">
-        <v>1.737285328502036</v>
+        <v>0.8686426642510182</v>
       </c>
       <c r="CU4">
-        <v>1.767045332073713</v>
+        <v>0.8835226660368565</v>
       </c>
       <c r="CV4">
-        <v>1.796805335645389</v>
+        <v>0.8984026678226947</v>
       </c>
       <c r="CW4">
-        <v>1.826565339217066</v>
+        <v>0.913282669608533</v>
       </c>
       <c r="CX4">
-        <v>1.856325342788743</v>
+        <v>0.9281626713943714</v>
       </c>
       <c r="CY4">
-        <v>1.886085346360419</v>
+        <v>0.9430426731802096</v>
       </c>
       <c r="CZ4">
-        <v>1.915845349932096</v>
-      </c>
-      <c r="DA4">
-        <v>1.915845349932096</v>
+        <v>0.957922674966048</v>
       </c>
     </row>
   </sheetData>
